--- a/biology/Histoire de la zoologie et de la botanique/Spiridon_Brusina/Spiridon_Brusina.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Spiridon_Brusina/Spiridon_Brusina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spiridon (ou Špiro) Brusina est un zoologiste croate d'Autriche-Hongrie, né à Zadar le 11 décembre 1845 et décédé à Zagreb le 21 mai 1908. Il est considéré comme l'un des pères fondateurs de la biologie croate.
 Après des études à Vienne, il devient professeur de zoologie à Zagreb et y dirige le musée zoologique à partir de 1876. Il a également été membre de l’Académie yougoslave des sciences et des arts (fondée en 1866, sans lien direct avec la future Yougoslavie). En 1885, il participe aussi à la fondation de la Société croate d'histoire naturelle.
@@ -514,7 +526,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(hr) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en croate intitulé « Spiridion Brusina » (voir la liste des auteurs).
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'Autriche                    </t>
